--- a/CV_sections/CV_main.xlsx
+++ b/CV_sections/CV_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarjeisandsnes/webpage/CV_sections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C3FB97-4E28-8B4A-9CBC-19641B70FF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B0A40D-8D7C-414B-B55F-099AE25BD6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="740" windowWidth="29020" windowHeight="16680" xr2:uid="{C3AA2F21-AFFB-1747-8621-D70A7E3250A3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>from</t>
   </si>
@@ -113,12 +113,6 @@
   </si>
   <si>
     <t>Bachelor of Arts (B.A.), Finance</t>
-  </si>
-  <si>
-    <t>- Creation of a literature platform with extensive tracking tools, consisting of over 60,000 authors and 300,000 texts from Wikidata (Wikipedia’s database)
-   - Frontend: ReactJS, CSS, HTML
-   - Backend: Python (fastAPI, Pandas, numpy, etc.) PostgreSQL, SPARQL (to extract data from Wikidata)
-- Transformation of French language skills (A2 → C1)</t>
   </si>
   <si>
     <t>Worked in the Analytics &amp; Reporting (A&amp;R) department, responsible for company’s data warehouse, various reports, and cross-country processes with some of the following responsibilities:
@@ -134,14 +128,35 @@
 Distinction: Employee of the year 2021 (award to top 10% performers)</t>
   </si>
   <si>
+    <t>- Exchange at Hong Kong University of Science &amp; Technology (HKUST) in Hong Kong</t>
+  </si>
+  <si>
+    <t>- Creation of a literature platform with extensive tracking tools, consisting of over 60,000 authors and 300,000 texts from Wikidata (Wikipedia’s database)
+   - Frontend: ReactJS, CSS, HTML
+   - Backend: Python (fastAPI, Pandas, numpy, etc.), PostgreSQL, SPARQL (to extract data from Wikidata)
+- Transformation of French language skills (A2 → C1)</t>
+  </si>
+  <si>
+    <t>React, Python, API development, SQL</t>
+  </si>
+  <si>
+    <t>Data privacy law, economics</t>
+  </si>
+  <si>
     <t>Ranked #6 top finance pre-experience program by Financial Times in 2018
 - Master's thesis: "Analysis of Economic Composite Indexes - Robustness and Relevance for Practice"
 - Exchange at Tsinghua University in Beijing
-- Intense financial modelling in Singapore (Private Equity course)
+- Intense financial modeling in Singapore (Private Equity course)
 - Learned R &amp; VBA programming for data &amp; econometric analysis</t>
   </si>
   <si>
-    <t>- Exchange at Hong Kong University of Science &amp; Technology (HKUST) in Hong Kong</t>
+    <t>Financial modeling, data analysis, econometrics, indexing</t>
+  </si>
+  <si>
+    <t>Financial modeling, econometrics, Excel</t>
+  </si>
+  <si>
+    <t>Data analysis, process management, data warehousing, dashboarding, SQL, Python, Excel, slide deck production, reporting</t>
   </si>
 </sst>
 </file>
@@ -177,12 +192,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,6 +547,7 @@
     <col min="1" max="1" width="41.33203125" customWidth="1"/>
     <col min="2" max="4" width="35.5" customWidth="1"/>
     <col min="7" max="7" width="54.1640625" customWidth="1"/>
+    <col min="8" max="8" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -576,8 +595,11 @@
       <c r="F2" s="2">
         <v>45078</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>25</v>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
       </c>
       <c r="I2" t="s">
         <v>15</v>
@@ -600,7 +622,10 @@
         <v>44927</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -608,10 +633,10 @@
     </row>
     <row r="4" spans="1:9" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
@@ -623,7 +648,10 @@
         <v>43405</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -631,10 +659,10 @@
     </row>
     <row r="5" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -647,6 +675,9 @@
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -654,10 +685,10 @@
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -669,7 +700,10 @@
         <v>42156</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>

--- a/CV_sections/CV_main.xlsx
+++ b/CV_sections/CV_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarjeisandsnes/webpage/CV_sections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B0A40D-8D7C-414B-B55F-099AE25BD6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB1D03B-404B-B244-8897-DFA6F313865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="740" windowWidth="29020" windowHeight="16680" xr2:uid="{C3AA2F21-AFFB-1747-8621-D70A7E3250A3}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,7 +593,7 @@
         <v>44958</v>
       </c>
       <c r="F2" s="2">
-        <v>45078</v>
+        <v>45444</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>27</v>

--- a/CV_sections/CV_main.xlsx
+++ b/CV_sections/CV_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarjeisandsnes/webpage/CV_sections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB1D03B-404B-B244-8897-DFA6F313865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C2B07-BAE3-394B-A897-0DFED1CDCE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="740" windowWidth="29020" windowHeight="16680" xr2:uid="{C3AA2F21-AFFB-1747-8621-D70A7E3250A3}"/>
   </bookViews>
@@ -538,8 +538,8 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CV_sections/CV_main.xlsx
+++ b/CV_sections/CV_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarjeisandsnes/webpage/CV_sections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C2B07-BAE3-394B-A897-0DFED1CDCE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB14EBA4-9BC3-EB47-A3F2-6345FFD8E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="740" windowWidth="29020" windowHeight="16680" xr2:uid="{C3AA2F21-AFFB-1747-8621-D70A7E3250A3}"/>
   </bookViews>
@@ -538,8 +538,8 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/CV_sections/CV_main.xlsx
+++ b/CV_sections/CV_main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarjeisandsnes/webpage/CV_sections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB14EBA4-9BC3-EB47-A3F2-6345FFD8E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039A2F38-651E-1648-9AF0-F8C0721FD9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="740" windowWidth="29020" windowHeight="16680" xr2:uid="{C3AA2F21-AFFB-1747-8621-D70A7E3250A3}"/>
+    <workbookView xWindow="220" yWindow="740" windowWidth="29020" windowHeight="16680" activeTab="1" xr2:uid="{C3AA2F21-AFFB-1747-8621-D70A7E3250A3}"/>
   </bookViews>
   <sheets>
     <sheet name="en" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>from</t>
   </si>
@@ -157,6 +157,73 @@
   </si>
   <si>
     <t>Data analysis, process management, data warehousing, dashboarding, SQL, Python, Excel, slide deck production, reporting</t>
+  </si>
+  <si>
+    <t>Interruption de Carrière/Projets Personnels</t>
+  </si>
+  <si>
+    <t>React, Python, dévéloppement d'APIs, SQL</t>
+  </si>
+  <si>
+    <t>Département d’analyse et de reporting : responsable des données de l’entreprise, des rapports de performance, des processus transnationaux, etc.
+-  Coanimation d’un forum pour les contrôleurs de l’entreprise : gestion de l’ordre du jour, préparation du matériel, coordination et gestion des processus, etc.
+-  Direction, automatisation et l’amélioration des différents processus
+-  Développement &amp; maintenance des modèles de prévision et analyse de leurs évolutions
+-  Rapports mensuels/trimestriels, production des ensembles de données pertinentes
+-  Développement de l’entrepôt de données (MSSQL)
+-  Maintenance des outils BI/datavisualisation en QlikView
+-  Documentation des tables de données, des procès, des rapports, etc. 
+-  Tâches techniques ad-hoc (développement d'API, modèles VBA, etc.)
+Distinction : Employé de l’année 2021</t>
+  </si>
+  <si>
+    <t>Analyste</t>
+  </si>
+  <si>
+    <t>Master of Arts (M.A.), Banque &amp; Finance</t>
+  </si>
+  <si>
+    <t>Classé #6 dans la finance pre-expérience par Financial Times en 2018
+- Thèse de Master :  "Analysis of Economic Composite Indexes - Robustness and Relevance for Practice"
+- Exchange à l’Université Tsinghua à Pékin 
+- Modélisation financière à Singapour
+- Apprentissage de R et VBA pour l'analyse des données et l'analyse économétrique</t>
+  </si>
+  <si>
+    <t>Analyse de données, gestion de procés, data warehousing, dashboarding, SQL, Python, Excel, reporting</t>
+  </si>
+  <si>
+    <t>Cours Sélectifs en Économie et en Droit</t>
+  </si>
+  <si>
+    <t>Université d’Oslo (UIO)</t>
+  </si>
+  <si>
+    <t>Université de Saint-Gall (HSG)</t>
+  </si>
+  <si>
+    <t>Saint-Gall, Suisse</t>
+  </si>
+  <si>
+    <t>Oslo, Norvège</t>
+  </si>
+  <si>
+    <t>- Exchange à l’Université des Sciences et Technologies de Hong Kong (HKUST)</t>
+  </si>
+  <si>
+    <t>Modélisation financière, analyse de données, econometrie, indexing</t>
+  </si>
+  <si>
+    <t>- Création d’une plate-forme littéraire composée de plus de 60 000 écrivains et 300 000 textes issus de Wikidata :
+   - Frontend: ReactJS, CSS, HTML
+   - Backend: Python (fastAPI, Pandas, numpy, etc.), PostgreSQL, SPARQL
+- Amélioration des compétences en français (A2 → C1)</t>
+  </si>
+  <si>
+    <t>Droit de la confidentialité des données, économie</t>
+  </si>
+  <si>
+    <t>Modélisation financière, analyse de données, econometrie</t>
   </si>
 </sst>
 </file>
@@ -537,9 +604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DFEC79-F959-3C47-94E6-7073962A48B2}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,12 +783,179 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC5045B-6D00-7E4D-9219-682F636C3EF6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
+    <col min="7" max="7" width="55.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44958</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45444</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="231" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43891</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44927</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="182" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="2">
+        <v>42614</v>
+      </c>
+      <c r="F4" s="2">
+        <v>43405</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="203" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2">
+        <v>42217</v>
+      </c>
+      <c r="F5" s="2">
+        <v>42522</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="2">
+        <v>41122</v>
+      </c>
+      <c r="F6" s="2">
+        <v>42156</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CV_sections/CV_main.xlsx
+++ b/CV_sections/CV_main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarjeisandsnes/webpage/CV_sections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039A2F38-651E-1648-9AF0-F8C0721FD9CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB0C104-FEDF-1E40-BA30-26D72E51D9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="740" windowWidth="29020" windowHeight="16680" activeTab="1" xr2:uid="{C3AA2F21-AFFB-1747-8621-D70A7E3250A3}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="en" sheetId="1" r:id="rId1"/>
     <sheet name="fr" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="62">
   <si>
     <t>from</t>
   </si>
@@ -224,6 +224,39 @@
   </si>
   <si>
     <t>Modélisation financière, analyse de données, econometrie</t>
+  </si>
+  <si>
+    <t>Intensive French (A2 → B2)</t>
+  </si>
+  <si>
+    <t>École Suisse International</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>education_other</t>
+  </si>
+  <si>
+    <t>Intensive Latin</t>
+  </si>
+  <si>
+    <t>Harvard Summer School</t>
+  </si>
+  <si>
+    <t>Cambridge, USA</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>Français Intensif (A2 / B2)</t>
+  </si>
+  <si>
+    <t>Latin Intensif</t>
+  </si>
+  <si>
+    <t>Cambridge,  États-Unis</t>
   </si>
 </sst>
 </file>
@@ -602,11 +635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DFEC79-F959-3C47-94E6-7073962A48B2}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -776,6 +809,52 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45170</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45261</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2">
+        <v>41791</v>
+      </c>
+      <c r="F8" s="2">
+        <v>41852</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -783,17 +862,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC5045B-6D00-7E4D-9219-682F636C3EF6}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="39.1640625" customWidth="1"/>
-    <col min="7" max="7" width="55.5" customWidth="1"/>
+    <col min="7" max="7" width="65.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -955,6 +1034,52 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45170</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45261</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2">
+        <v>41791</v>
+      </c>
+      <c r="F8" s="2">
+        <v>41852</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
